--- a/db2XL.xlsx
+++ b/db2XL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="319">
   <si>
     <t>username</t>
   </si>
@@ -531,6 +531,12 @@
     <t>Rahul</t>
   </si>
   <si>
+    <t>Random patient</t>
+  </si>
+  <si>
+    <t>anup`</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
@@ -555,6 +561,12 @@
     <t>Obesity</t>
   </si>
   <si>
+    <t>obese, unhealthy</t>
+  </si>
+  <si>
+    <t>diabitics</t>
+  </si>
+  <si>
     <t>2023-01-12 23:06:46.938515</t>
   </si>
   <si>
@@ -600,6 +612,12 @@
     <t>2023-01-12 23:45:08.502914</t>
   </si>
   <si>
+    <t>2023-01-18 16:13:51.803629</t>
+  </si>
+  <si>
+    <t>2023-01-20 11:46:43.932040</t>
+  </si>
+  <si>
     <t>drugs_id</t>
   </si>
   <si>
@@ -799,6 +817,9 @@
   </si>
   <si>
     <t>2023-01-13 22:32:07.930071</t>
+  </si>
+  <si>
+    <t>2023-01-18 16:14:00.893199</t>
   </si>
   <si>
     <t>symptoms</t>
@@ -850,6 +871,15 @@
 </t>
   </si>
   <si>
+    <t>fever, cough, nausea, allergy</t>
+  </si>
+  <si>
+    <t>bleeding,vomit</t>
+  </si>
+  <si>
+    <t>bleeding,vomit,motions</t>
+  </si>
+  <si>
     <t>T</t>
   </si>
   <si>
@@ -923,6 +953,9 @@
 </t>
   </si>
   <si>
+    <t>side effects</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -958,6 +991,9 @@
 </t>
   </si>
   <si>
+    <t>drugs used</t>
+  </si>
+  <si>
     <t>2023-01-12 23:07:38.000859</t>
   </si>
   <si>
@@ -1001,6 +1037,18 @@
   </si>
   <si>
     <t>2023-01-13 19:04:55.923854</t>
+  </si>
+  <si>
+    <t>2023-01-18 14:18:43.047424</t>
+  </si>
+  <si>
+    <t>2023-01-18 16:08:08.807079</t>
+  </si>
+  <si>
+    <t>2023-01-18 16:08:23.286546</t>
+  </si>
+  <si>
+    <t>2023-01-18 16:13:56.863636</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2556,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2551,16 +2599,16 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2">
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2577,16 +2625,16 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F3">
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2603,16 +2651,16 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4">
         <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2629,16 +2677,16 @@
         <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F5">
         <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2655,16 +2703,16 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F6">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2681,16 +2729,16 @@
         <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7">
         <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2707,16 +2755,16 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8">
         <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2733,16 +2781,16 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F9">
         <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2759,16 +2807,16 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F10">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2785,16 +2833,16 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F11">
         <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2811,16 +2859,16 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F12">
         <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2837,16 +2885,16 @@
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13">
         <v>52</v>
       </c>
       <c r="G13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2863,16 +2911,16 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2889,16 +2937,16 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F15">
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2915,16 +2963,68 @@
         <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F16">
         <v>72</v>
       </c>
       <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>172</v>
       </c>
-      <c r="H16" t="s">
-        <v>192</v>
+      <c r="F17">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18">
+        <v>110</v>
+      </c>
+      <c r="E18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18">
+        <v>95</v>
+      </c>
+      <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +3034,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2942,19 +3042,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -2968,19 +3068,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2991,19 +3091,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3014,19 +3114,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3037,19 +3137,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3060,19 +3160,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3083,19 +3183,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3106,19 +3206,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3129,19 +3229,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3152,19 +3252,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3175,19 +3275,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3198,19 +3298,30 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3231,7 +3342,7 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>150</v>
@@ -3240,13 +3351,13 @@
         <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -3260,7 +3371,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3269,16 +3380,16 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3289,7 +3400,7 @@
         <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -3298,16 +3409,16 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3318,7 +3429,7 @@
         <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -3327,16 +3438,16 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3347,7 +3458,7 @@
         <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -3356,16 +3467,16 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3376,7 +3487,7 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3385,16 +3496,16 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I6" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3405,7 +3516,7 @@
         <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -3414,16 +3525,16 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3434,7 +3545,7 @@
         <v>162</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -3443,16 +3554,16 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G8" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I8" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3463,7 +3574,7 @@
         <v>163</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -3472,16 +3583,16 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I9" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3492,7 +3603,7 @@
         <v>164</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3501,16 +3612,16 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I10" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3521,7 +3632,7 @@
         <v>165</v>
       </c>
       <c r="C11" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -3530,16 +3641,16 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3550,7 +3661,7 @@
         <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -3559,16 +3670,16 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G12" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3579,7 +3690,7 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -3588,16 +3699,16 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H13" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3608,7 +3719,7 @@
         <v>168</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -3617,16 +3728,16 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="H14" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3637,7 +3748,7 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -3646,16 +3757,16 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G15" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H15" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I15" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3666,7 +3777,7 @@
         <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D16">
         <v>15</v>
@@ -3675,16 +3786,111 @@
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G16" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="H16" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="I16" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" t="s">
+        <v>299</v>
+      </c>
+      <c r="I18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" t="s">
+        <v>299</v>
+      </c>
+      <c r="I19" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/db2XL.xlsx
+++ b/db2XL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amogh\Downloads\ClinicalDiagonizer-main (1)\ClinicalDiagonizer-main\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC65EC-8530-4B2F-B47A-8A3C4AB42DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Details" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
     <sheet name="Drugs" sheetId="5" r:id="rId5"/>
     <sheet name="Record" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="294">
   <si>
     <t>username</t>
   </si>
@@ -99,34 +105,34 @@
     <t>vvh</t>
   </si>
   <si>
-    <t>2023-01-12 23:05:31.759206</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.712177</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.776194</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.840213</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.710298</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.752319</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.791318</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.836307</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.876311</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.917314</t>
+    <t>2023-01-30 22:11:05.112594</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.176610</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.232622</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.296642</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.360674</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.424670</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.480685</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.544702</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.608719</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.664734</t>
   </si>
   <si>
     <t>name</t>
@@ -246,34 +252,34 @@
     <t>Cardiocenter</t>
   </si>
   <si>
-    <t>2023-01-12 23:05:31.743222</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.696177</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.760188</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.824207</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.703302</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.744305</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.783317</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.829309</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.869311</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.910313</t>
+    <t>2023-01-30 22:11:05.104592</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.168607</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.224624</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.288641</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.352656</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.416689</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.472685</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.528699</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.592718</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.656736</t>
   </si>
   <si>
     <t>doctor_id</t>
@@ -375,100 +381,100 @@
     <t>MBBS,MD</t>
   </si>
   <si>
+    <t>MBBS</t>
+  </si>
+  <si>
     <t>MBBS,</t>
   </si>
   <si>
-    <t>MBBS</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:05:31.775235</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:05:31.791214</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:05:31.807219</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.728182</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.736187</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.752191</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.784195</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.800202</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.816206</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.848213</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.864216</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:11:50.872219</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.720304</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.728318</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.736307</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.760303</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.768303</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.776306</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.799320</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.808320</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.817308</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.845311</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.853310</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.861311</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.884311</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.893314</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.900314</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.925314</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.933315</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:30:21.941315</t>
+    <t>2023-01-30 22:11:05.128603</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.144607</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.152603</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.192618</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.200618</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.208618</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.248627</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.264636</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.272633</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.312648</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.328666</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.336650</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.376670</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.384665</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.400673</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.440702</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.448681</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.464684</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.496694</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.504692</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.520698</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.552708</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.568710</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.576709</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.616720</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.632727</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.640726</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.680748</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.688742</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:11:05.704742</t>
   </si>
   <si>
     <t>patient_id</t>
@@ -486,55 +492,34 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>Amogha</t>
-  </si>
-  <si>
-    <t>Amogha2</t>
-  </si>
-  <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
-    <t>Ramya</t>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Charulatha</t>
   </si>
   <si>
     <t>Deepika</t>
   </si>
   <si>
-    <t>Ganesh</t>
-  </si>
-  <si>
-    <t>Uday</t>
-  </si>
-  <si>
-    <t>Shrikanth</t>
-  </si>
-  <si>
-    <t>Dheeraj</t>
-  </si>
-  <si>
-    <t>Shwetha</t>
-  </si>
-  <si>
-    <t>Reshma</t>
-  </si>
-  <si>
-    <t>Kathy</t>
-  </si>
-  <si>
-    <t>Kamal</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Random patient</t>
-  </si>
-  <si>
-    <t>anup`</t>
+    <t>Eshwar</t>
+  </si>
+  <si>
+    <t>Fathima</t>
+  </si>
+  <si>
+    <t>Goutham</t>
+  </si>
+  <si>
+    <t>Ishan</t>
+  </si>
+  <si>
+    <t>Jeevan</t>
+  </si>
+  <si>
+    <t>Krunal</t>
+  </si>
+  <si>
+    <t>Lohit</t>
   </si>
   <si>
     <t>Male</t>
@@ -543,79 +528,61 @@
     <t>Female</t>
   </si>
   <si>
+    <t>Diabetics</t>
+  </si>
+  <si>
+    <t>Asthama</t>
+  </si>
+  <si>
+    <t>Thyroid</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>High BP</t>
+  </si>
+  <si>
     <t>Diabetic</t>
   </si>
   <si>
-    <t>Thyroid</t>
-  </si>
-  <si>
-    <t>Weak Heart</t>
-  </si>
-  <si>
-    <t>Low BP</t>
-  </si>
-  <si>
-    <t>Obesity</t>
-  </si>
-  <si>
-    <t>obese, unhealthy</t>
-  </si>
-  <si>
-    <t>diabitics</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:06:46.938515</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:07:01.991271</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:34:44.480426</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:35:11.698673</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:35:36.811928</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:39:24.058479</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:39:53.085879</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:40:19.824538</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:40:55.882206</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:41:20.518661</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:41:54.658969</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:42:31.915502</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:43:19.051215</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:44:44.654859</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:45:08.502914</t>
-  </si>
-  <si>
-    <t>2023-01-18 16:13:51.803629</t>
-  </si>
-  <si>
-    <t>2023-01-20 11:46:43.932040</t>
+    <t>2023-01-30 22:12:15.916279</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:12:47.950622</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:13:27.589429</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:14:49.174464</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:15:12.777694</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:15:38.667092</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:16:08.364220</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:16:44.264463</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:17:16.897221</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:17:32.711708</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:18:49.895362</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:20:24.464216</t>
   </si>
   <si>
     <t>drugs_id</t>
@@ -646,416 +613,373 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">0.015% w/w benzalkonium chloride, dextrose anhydrous, edetate disodium, microcrystalline cellulose, carboxymethylcellulose sodium, polysorbate 80, and purified water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 mg lumefantrine and 20 mg of artemether.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microcrystalline cellulose, sodium starch glycolate, colloidal silicon dioxide, magnesium stearate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diphenoxylate hydrochloride and atropine sulfate monohydrate.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ralington pharma LLP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novartis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ViiV Healthcare.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loratadine,Flonase,Allegra.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloroquine,Doxycycline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zidovudine,stavudine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfizer
+</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:17:16.657729</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:18:31.842751</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:19:34.496769</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:20:17.127610</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>side_effects</t>
+  </si>
+  <si>
+    <t>drugs_used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pain in abdomen or muscles, fever,night sweats.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high fever,hedache,joint pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloating,nausea,blood in the stool.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swelling in the abdomen,loss of appetite,nausea and vomiting,constipation or diarrhoea,inability to pass gas,low grade fever
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diarrhea,nausea and vomiting,dehydration 
+</t>
+  </si>
+  <si>
+    <t>runny or stuffy nose,sore throat,cough,congestion,slight body aches or a mildheadache,sneezing,low-grade fever
+generally feeling unwell</t>
+  </si>
+  <si>
+    <t>neck or jaw pain,a fast heartbeat,shoulder or arm pain,shortness of breath when you are physically active,nausea and vomiting
+,sweating,fatigue</t>
+  </si>
+  <si>
+    <t>high fever,cough,sore throat,chest pain</t>
+  </si>
+  <si>
+    <t>runny nose,mild fever,sore throat,chest pain</t>
+  </si>
+  <si>
+    <t>sore throat,cough,fever,chills</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anti-parasitics,Antibiotics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analgesics,oral rehydration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral rehydration,drink more water.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment generally include  surgical removal of appendix.  This procedure is known as an appendicectomy or appendectomy. The appendix is removed using laparoscopic (keyhole) surgery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rehydration,Intravenous fluids,Antibiotics,Zinc supplements
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drink plenty of liquids, humidify the air, use saline nasal rinses and get adequate rest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angioplasty and stenting,Coronary artery bypass surgery,Enhanced external counterpulsation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment generally include  surgical removal of appendix,This procedure is known as an appendicectomy or appendectomy. The appendix is removed using laparoscopic (keyhole) surgery.
+</t>
+  </si>
+  <si>
+    <t>drink hot water 3times a day, take steam, take rest</t>
+  </si>
+  <si>
+    <t>drink hot water 3times a day, , take rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vomiting,headache.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nausea,vomiting,rash,aches and pain behind the eyes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excessive thirst,dry skin,little or no urination.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diarrhea, constipation, gas, or a headache
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiredness, headache, abdominal pain, nausea, vomiting, lack of appetite, and diarrhea
+</t>
+  </si>
+  <si>
+    <t>Head ache,Dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headaches,Flushing,Low blood pressure,Dizziness and fainting,Abnormal heart rhythms
+</t>
+  </si>
+  <si>
+    <t>dizziness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coartem,Malarone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYD-TDV(dengue vaccine)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imodium AD,Lomotil.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tylenol (acetaminophen) and Motrin (ibuprofen or Advil)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norfloxacin, trimethoprim-sulfamethoxazole (TMP-SMX), and ciprofloxacin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oxymetazoline nasal (Afrin, Dristan 12-Hour Nasal Spray),phenylephrine nasal (Neo-Synephrine),phenylephrine oral (Sudafed PE, Triaminic Multi-Symptom Fever and Cold),pseudoephedrine (Sudafed),acetaminophen (Tylenol),ibuprofen (Advil, Motrin),naproxen (Aleve)
+</t>
+  </si>
+  <si>
+    <t>Aspirin,Nitrates,Beta blockers,Calcium channel blockers,Cholesterol-lowering medications,Angiotensin-converting enzyme (ACE) inhibitors,Ranolazine (Ranexa)
+1</t>
+  </si>
+  <si>
+    <t>paracetamol 500mg</t>
+  </si>
+  <si>
+    <t>Dolo 650</t>
+  </si>
+  <si>
+    <t>Dolo 650,Benedryl</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:33:41.753720</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:36:02.129765</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:42:22.263176</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:47:07.817948</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:50:00.516582</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:56:28.398297</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:58:40.271135</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:00:49.019494</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:05:21.866988</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:07:22.210351</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:10:42.901169</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:12:43.647351</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:13:49.156800</t>
+  </si>
+  <si>
+    <t>2023-01-30 23:14:52.859444</t>
+  </si>
+  <si>
     <t xml:space="preserve">tylenol
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Acetaminophen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson &amp; Johnson Consumer Health
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aspirin,ibuprofen.
+</t>
+  </si>
+  <si>
+    <t>2023-01-13 22:28:08.620275</t>
+  </si>
+  <si>
     <t xml:space="preserve">ibuprofen
 </t>
   </si>
   <si>
+    <t xml:space="preserve">ibuprofen 200 mg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taj Pharma
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naproxen , aspirin
+</t>
+  </si>
+  <si>
+    <t>2023-01-13 22:28:43.324790</t>
+  </si>
+  <si>
     <t xml:space="preserve">cetuximab
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Immunoglobulin G1, anti-(human epidermal growth factor receptor) (human-mouse monoclonal C225 gamma1-chain), disulfide with human-mouse monoclonal C225 kappa-chain, dimer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eli Lilly and Company.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxaliplatin,Xeloda.
+</t>
+  </si>
+  <si>
+    <t>2023-01-13 22:29:27.086978</t>
+  </si>
+  <si>
     <t xml:space="preserve">Norfloxacin
 </t>
   </si>
   <si>
+    <t xml:space="preserve">norfloxacin and lactic acid bacillus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdvaCare
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix 400 mg, Tindiflox 400 mg.
+</t>
+  </si>
+  <si>
+    <t>2023-01-13 22:29:59.418248</t>
+  </si>
+  <si>
     <t xml:space="preserve">naproxen
 </t>
   </si>
   <si>
+    <t xml:space="preserve">250 mg of naproxen
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reddy's Laboratories.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paracetamol.
+</t>
+  </si>
+  <si>
+    <t>2023-01-13 22:31:32.938857</t>
+  </si>
+  <si>
     <t xml:space="preserve">motrin
 </t>
   </si>
   <si>
-    <t xml:space="preserve">0.015% w/w benzalkonium chloride, dextrose anhydrous, edetate disodium, microcrystalline cellulose, carboxymethylcellulose sodium, polysorbate 80, and purified water.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 mg lumefantrine and 20 mg of artemether.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microcrystalline cellulose, sodium starch glycolate, colloidal silicon dioxide, magnesium stearate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diphenoxylate hydrochloride and atropine sulfate monohydrate.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetaminophen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibuprofen 200 mg
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immunoglobulin G1, anti-(human epidermal growth factor receptor) (human-mouse monoclonal C225 gamma1-chain), disulfide with human-mouse monoclonal C225 kappa-chain, dimer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norfloxacin and lactic acid bacillus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 mg of naproxen
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">p-isobutylphenyl,propionic acid
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ralington pharma LLP
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novartis.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ViiV Healthcare.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pfizer
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johnson &amp; Johnson Consumer Health
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taj Pharma
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eli Lilly and Company.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdvaCare
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reddy's Laboratories.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loratadine,Flonase,Allegra.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloroquine,Doxycycline.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zidovudine,stavudine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imodium A-D.,Florastor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aspirin,ibuprofen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naproxen , aspirin
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxaliplatin,Xeloda.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix 400 mg, Tindiflox 400 mg.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paracetamol.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gabapentin,Oxycodone,Tylenol.
 </t>
   </si>
   <si>
-    <t>2023-01-13 22:25:15.949677</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:25:56.396246</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:26:49.738826</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:27:28.726809</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:28:08.620275</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:28:43.324790</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:29:27.086978</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:29:59.418248</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:31:32.938857</t>
-  </si>
-  <si>
     <t>2023-01-13 22:32:07.096674</t>
-  </si>
-  <si>
-    <t>2023-01-13 22:32:07.930071</t>
-  </si>
-  <si>
-    <t>2023-01-18 16:14:00.893199</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>side_effects</t>
-  </si>
-  <si>
-    <t>drugs_used</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pain in abdomen or muscles, fever,night sweats.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high fever,hedache,joint pain.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloating,Nausea,blood in the stool.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swelling in the abdomen,Loss of appetite,Nausea and vomiting,Constipation or diarrhoea,Inability to pass gas,Low grade fever
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diarrhea,Nausea and vomiting,Dehydration 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Runny or stuffy nose,Sore throat,Cough,Congestion,Slight body aches or a mildheadache,Sneezing,Low-grade fever
-Generally feeling unwell"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Neck or jaw pain,A fast heartbeat,Shoulder or arm pain,Shortness of breath when you are physically active,Nausea and vomiting
-,Sweating,Fatigue"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fluttering in the chest,A racing,heartbeat (tachycardia),A slow,heartbeat (bradycardia),Chest pain,Shortness of breath
-</t>
-  </si>
-  <si>
-    <t>fever, cough, nausea, allergy</t>
-  </si>
-  <si>
-    <t>bleeding,vomit</t>
-  </si>
-  <si>
-    <t>bleeding,vomit,motions</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anti-parasitics,Antibiotics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analgesics,oral rehydration.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral rehydration,drink more water.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment generally include  surgical removal of appendix.  This procedure is known as an appendicectomy or appendectomy. The appendix is removed using laparoscopic (keyhole) surgery.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehydration,Intravenous fluids,Antibiotics,Zinc supplements
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drink plenty of liquids, humidify the air, use saline nasal rinses and get adequate rest
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angioplasty and stenting,Coronary artery bypass surgery,Enhanced external counterpulsation
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catheter ablation,Pacemaker,Implantable cardioverter-defibrillator (ICD),Maze procedure,Coronary bypass surgery
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vomiting,headache.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nausea,vomiting,rash,aches and pain behind the eyes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excessive thirst,dry skin,little or no urination.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diarrhea, constipation, gas, or a headache
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiredness, headache, abdominal pain, nausea, vomiting, lack of appetite, and diarrhea
-</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Headaches,Flushing,Low blood pressure,Dizziness and fainting,Abnormal heart rhythms
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constipation,Dizziness,Excessive thirst,Skin changes (for example, red or dry skin),Headache,Nausea,Ringing in the ears (tinnitus),Sensitivity to the sun.
-</t>
-  </si>
-  <si>
-    <t>Head ache,Dizziness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pain relievers,Decongestant nasal sprays,Cough syrups
-</t>
-  </si>
-  <si>
-    <t>side effects</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coartem,Malarone.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYD-TDV(dengue vaccine)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imodium AD,Lomotil.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tylenol (acetaminophen) and Motrin (ibuprofen or Advil)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norfloxacin, trimethoprim-sulfamethoxazole (TMP-SMX), and ciprofloxacin
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oxymetazoline nasal (Afrin, Dristan 12-Hour Nasal Spray),phenylephrine nasal (Neo-Synephrine),phenylephrine oral (Sudafed PE, Triaminic Multi-Symptom Fever and Cold),pseudoephedrine (Sudafed),acetaminophen (Tylenol),ibuprofen (Advil, Motrin),naproxen (Aleve)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspirin,Nitrates,Beta blockers,Calcium channel blockers,Cholesterol-lowering medications,Angiotensin-converting enzyme (ACE) inhibitors,Ranolazine (Ranexa)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flecainide, sotalol (also a beta blocker) and amiodarone
-</t>
-  </si>
-  <si>
-    <t>drugs used</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:07:38.000859</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:48:41.082609</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:50:13.824254</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:51:35.726018</t>
-  </si>
-  <si>
-    <t>2023-01-12 23:53:27.528949</t>
-  </si>
-  <si>
-    <t>2023-01-13 18:29:45.963313</t>
-  </si>
-  <si>
-    <t>2023-01-13 18:43:33.656282</t>
-  </si>
-  <si>
-    <t>2023-01-13 18:45:36.762637</t>
-  </si>
-  <si>
-    <t>2023-01-13 18:45:50.560085</t>
-  </si>
-  <si>
-    <t>2023-01-13 18:54:37.795909</t>
-  </si>
-  <si>
-    <t>2023-01-13 19:01:06.191711</t>
-  </si>
-  <si>
-    <t>2023-01-13 19:03:26.507423</t>
-  </si>
-  <si>
-    <t>2023-01-13 19:03:36.323950</t>
-  </si>
-  <si>
-    <t>2023-01-13 19:04:48.275651</t>
-  </si>
-  <si>
-    <t>2023-01-13 19:04:55.923854</t>
-  </si>
-  <si>
-    <t>2023-01-18 14:18:43.047424</t>
-  </si>
-  <si>
-    <t>2023-01-18 16:08:08.807079</t>
-  </si>
-  <si>
-    <t>2023-01-18 16:08:23.286546</t>
-  </si>
-  <si>
-    <t>2023-01-18 16:13:56.863636</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,6 +1042,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1164,7 +1096,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1196,9 +1128,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1230,6 +1180,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1405,14 +1373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1449,7 +1417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1469,7 +1437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1489,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1509,7 +1477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1529,7 +1497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1549,7 +1517,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1569,7 +1537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1589,7 +1557,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1609,7 +1577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1635,14 +1603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +1633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1691,7 +1659,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1711,7 +1679,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1737,7 +1705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1763,7 +1731,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1789,7 +1757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1815,7 +1783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1841,7 +1809,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1867,7 +1835,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1893,7 +1861,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1925,14 +1893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>85</v>
       </c>
@@ -1949,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1969,7 +1937,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1989,7 +1957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2003,13 +1971,13 @@
         <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2029,7 +1997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2043,13 +2011,13 @@
         <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2069,7 +2037,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2089,7 +2057,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2103,13 +2071,13 @@
         <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2129,7 +2097,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2149,7 +2117,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2169,7 +2137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2189,7 +2157,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2203,13 +2171,13 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2223,13 +2191,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2249,7 +2217,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2269,7 +2237,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2283,13 +2251,13 @@
         <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2309,7 +2277,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2329,7 +2297,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2343,13 +2311,13 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2369,7 +2337,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2389,7 +2357,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2409,7 +2377,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2429,7 +2397,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2449,7 +2417,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2463,13 +2431,13 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2489,7 +2457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2509,7 +2477,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2523,13 +2491,13 @@
         <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2555,14 +2523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>150</v>
       </c>
@@ -2585,7 +2553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2596,22 +2564,22 @@
         <v>155</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F2">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
         <v>174</v>
       </c>
-      <c r="H2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2619,25 +2587,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2645,25 +2613,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2671,25 +2639,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2697,25 +2665,25 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F6">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2723,25 +2691,25 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2749,25 +2717,25 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F8">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2775,25 +2743,25 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
         <v>172</v>
       </c>
-      <c r="F9">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>174</v>
-      </c>
       <c r="H9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2801,25 +2769,25 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F10">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2827,25 +2795,25 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F11">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2853,25 +2821,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>165</v>
-      </c>
-      <c r="D12">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>173</v>
       </c>
       <c r="F12">
         <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2879,152 +2847,22 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
         <v>173</v>
       </c>
-      <c r="F13">
-        <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>174</v>
-      </c>
       <c r="H13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>167</v>
-      </c>
-      <c r="D14">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F16">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18">
-        <v>95</v>
-      </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3033,34 +2871,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3068,22 +2908,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3091,22 +2931,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3114,22 +2954,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3137,22 +2977,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3160,22 +3000,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>266</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3183,22 +3023,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>272</v>
       </c>
       <c r="F7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3206,22 +3046,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3229,22 +3069,22 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3252,22 +3092,22 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3275,53 +3115,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3330,19 +3136,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>150</v>
@@ -3351,19 +3159,19 @@
         <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3371,7 +3179,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3380,517 +3188,393 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="H2" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="H4" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="H5" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="I5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>294</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="G7" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
       <c r="F8" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="I8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>9</v>
       </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="G9" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="H10" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="G11" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" t="s">
         <v>262</v>
       </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" t="s">
-        <v>294</v>
-      </c>
-      <c r="I13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="G14" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="H14" t="s">
-        <v>294</v>
+        <v>250</v>
       </c>
       <c r="I14" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" t="s">
         <v>264</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" t="s">
-        <v>296</v>
-      </c>
-      <c r="I16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" t="s">
-        <v>289</v>
-      </c>
-      <c r="H18" t="s">
-        <v>299</v>
-      </c>
-      <c r="I18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" t="s">
-        <v>289</v>
-      </c>
-      <c r="H19" t="s">
-        <v>299</v>
-      </c>
-      <c r="I19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
